--- a/MOCK_DATA.xlsx
+++ b/MOCK_DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anilt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anilt\Desktop\ReadExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E545718F-BB7B-431F-9DEF-A04D484791C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2918C6-6E0F-43F6-939A-ED04388F680F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{8EABB09C-5770-448F-AA0E-B40953BC618B}"/>
   </bookViews>
@@ -30,24 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>John</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>first_name</t>
   </si>
   <si>
     <t>Doe</t>
@@ -425,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23156F2-30F1-4237-9FD2-AB8C68138FF8}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,60 +422,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1">
+        <v>4567891234</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>4567891234</v>
+        <v>1234567891</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>1234567891</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{18617D64-7B60-43DB-A897-887977CC3122}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{81388D68-7F29-4F8B-8DD4-B5934A08FFD4}"/>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{18617D64-7B60-43DB-A897-887977CC3122}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{81388D68-7F29-4F8B-8DD4-B5934A08FFD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
